--- a/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
+++ b/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="37455" windowHeight="11700"/>
+    <workbookView windowWidth="28000" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="波次参数" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>ID</t>
   </si>
@@ -46,16 +46,16 @@
     <t>下个波次激活条件-最长时间</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>方便看</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>方便看</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -64,28 +64,366 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,17 +431,306 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -394,31 +1021,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.4296875" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.4296875" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,233 +1077,233 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>4013</v>
+      </c>
+      <c r="E2">
+        <v>2001</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4012</v>
+      </c>
+      <c r="E3">
+        <v>2001</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6035</v>
+      </c>
+      <c r="E4">
+        <v>2001</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6034</v>
+      </c>
+      <c r="E5">
+        <v>2001</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6001</v>
+      </c>
+      <c r="E6">
+        <v>2001</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4015</v>
+      </c>
+      <c r="E7">
+        <v>2001</v>
       </c>
       <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4015</v>
+      </c>
+      <c r="E8">
+        <v>2001</v>
       </c>
       <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
+++ b/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
@@ -14,12 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>波次的</t>
     </r>
     <r>
@@ -36,6 +41,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>落地点</t>
     </r>
     <r>
@@ -49,6 +59,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>生成怪物</t>
     </r>
     <r>
@@ -76,13 +91,13 @@
     <t>下个波次激活条件-最长时间</t>
   </si>
   <si>
-    <t>绿色近战小蜘蛛_慢</t>
+    <t>白蜘蛛（远）</t>
   </si>
   <si>
-    <t>1</t>
+    <t>绿蜘蛛（近战）</t>
   </si>
   <si>
-    <t>2</t>
+    <t>红蜘蛛（大）（近战）</t>
   </si>
 </sst>
 </file>
@@ -90,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -107,6 +122,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -115,64 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -181,6 +220,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -191,53 +259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,15 +272,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,19 +282,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,19 +378,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,139 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,10 +484,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -487,15 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,6 +517,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,169 +579,166 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,58 +1089,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5142857142857" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="10" width="29" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.14285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.42857142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5714285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5714285714286" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5142857142857" style="2" customWidth="1"/>
+    <col min="7" max="8" width="23.7142857142857" style="2" customWidth="1"/>
+    <col min="9" max="10" width="29" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1124,12 +1151,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>4013</v>
+        <v>3008</v>
       </c>
       <c r="E2" s="1">
         <v>2001</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1">
@@ -1139,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1156,12 +1183,12 @@
         <v>2000</v>
       </c>
       <c r="D3" s="1">
-        <v>4001</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="1">
         <v>2001</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
@@ -1171,202 +1198,590 @@
         <v>1000</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
+    <row r="4" s="1" customFormat="1" spans="2:9">
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>4012</v>
+        <v>1004</v>
       </c>
       <c r="E4" s="1">
         <v>2001</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:9">
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>6035</v>
+        <v>3002</v>
       </c>
       <c r="E5" s="1">
         <v>2001</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:9">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:9">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:9">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3006</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:9">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:9">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:9">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:9">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:9">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:9">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6017</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:9">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:9">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:9">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:9">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:9">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6034</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:9">
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5006</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:9">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="2:9">
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="2:9">
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3005</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="2:9">
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3003</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:9">
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3023</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:9">
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="2:9">
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="2:9">
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3007</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:9">
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3003</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:9">
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:9">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:9">
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:9">
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:9">
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:9">
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
         <v>2001</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:9">
+      <c r="B36" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4015</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4015</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1500</v>
+      <c r="D36" s="1">
+        <v>3007</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="2:9">
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3005</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:9">
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="2:9">
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:9">
+      <c r="B40" s="1">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:9">
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:9">
+      <c r="B42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="2:9">
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5006</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="2:9">
+      <c r="B44" s="1">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
+++ b/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E2" s="1">
         <v>2001</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="E3" s="1">
         <v>2001</v>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>2015</v>
+        <v>3006</v>
       </c>
       <c r="E4" s="1">
         <v>2001</v>
@@ -529,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>2024</v>
+        <v>3005</v>
       </c>
       <c r="E5" s="1">
         <v>2001</v>
@@ -561,10 +561,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1002</v>
+        <v>3004</v>
       </c>
       <c r="E6" s="1">
         <v>2001</v>
@@ -593,10 +593,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -610,13 +610,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>5001</v>
+        <v>2003</v>
       </c>
       <c r="E7" s="1">
         <v>2001</v>
@@ -625,10 +625,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>2024</v>
+        <v>2004</v>
       </c>
       <c r="E8" s="1">
         <v>2001</v>
@@ -657,10 +657,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1002</v>
+        <v>2005</v>
       </c>
       <c r="E9" s="1">
         <v>2001</v>
@@ -689,10 +689,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>4005</v>
+        <v>2006</v>
       </c>
       <c r="E10" s="1">
         <v>2001</v>
@@ -721,10 +721,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>3008</v>
+        <v>2007</v>
       </c>
       <c r="E11" s="1">
         <v>2001</v>
@@ -753,10 +753,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>2015</v>
+        <v>1006</v>
       </c>
       <c r="E12" s="1">
         <v>2001</v>
@@ -785,10 +785,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -802,30 +802,254 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3007</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3005</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="H18" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
         <v>2000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D20" s="1">
         <v>2005</v>
       </c>
-      <c r="E13" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <v>500</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="E20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>1500</v>
       </c>
     </row>

--- a/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
+++ b/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1006</v>
+        <v>2026</v>
       </c>
       <c r="E12" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -808,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1002</v>
+        <v>2028</v>
       </c>
       <c r="E13" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -840,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>2006</v>
+        <v>2030</v>
       </c>
       <c r="E14" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>2003</v>
+        <v>3031</v>
       </c>
       <c r="E15" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>3007</v>
+        <v>3028</v>
       </c>
       <c r="E16" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>3004</v>
+        <v>4008</v>
       </c>
       <c r="E17" s="1">
         <v>2001</v>
@@ -945,10 +945,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>3005</v>
+        <v>4004</v>
       </c>
       <c r="E18" s="1">
         <v>2001</v>
@@ -977,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>1005</v>
+        <v>4010</v>
       </c>
       <c r="E19" s="1">
         <v>2001</v>
@@ -1009,10 +1009,10 @@
         <v>11</v>
       </c>
       <c r="G19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1029,27 +1029,731 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4012</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3025</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1006</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1002</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3007</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3004</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3005</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
         <v>2000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D30" s="1">
         <v>2005</v>
       </c>
-      <c r="E20" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="E30" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4013</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4004</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4002</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4015</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4008</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4005</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1004</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1007</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2031</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2026</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3006</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3004</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
         <v>1500</v>
       </c>
     </row>

--- a/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
+++ b/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,14 @@
   </si>
   <si>
     <t>方便看</t>
+  </si>
+  <si>
+    <t>场景名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,1364 +404,1370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>2004</v>
       </c>
-      <c r="E2" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="F2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>3007</v>
       </c>
-      <c r="E3" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="F3" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>3006</v>
       </c>
-      <c r="E4" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="F4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>3005</v>
       </c>
-      <c r="E5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="F5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>3004</v>
       </c>
-      <c r="E6" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="F6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>2003</v>
       </c>
-      <c r="E7" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
+      <c r="F7" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>2004</v>
       </c>
-      <c r="E8" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
+      <c r="F8" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>2005</v>
       </c>
-      <c r="E9" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
+      <c r="F9" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>2006</v>
       </c>
-      <c r="E10" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
+      <c r="F10" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>2007</v>
       </c>
-      <c r="E11" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="F11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
       <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>2026</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>2002</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
       <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>2028</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>2002</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
       <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>2030</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>2002</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
       <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>3031</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>2002</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
       <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>3028</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>2002</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>4008</v>
       </c>
-      <c r="E17" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
+      <c r="F17" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
       <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>4004</v>
       </c>
-      <c r="E18" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
+      <c r="F18" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
       <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>4010</v>
       </c>
-      <c r="E19" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
+      <c r="F19" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
       <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>4012</v>
       </c>
-      <c r="E20" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
+      <c r="F20" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
       <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>3025</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>2002</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>1006</v>
       </c>
-      <c r="E22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1">
         <v>2</v>
       </c>
-      <c r="H22" s="1">
-        <v>1500</v>
-      </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J22" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>1002</v>
       </c>
-      <c r="E23" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="1">
-        <v>1500</v>
-      </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J23" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>2006</v>
       </c>
-      <c r="E24" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1">
         <v>2</v>
       </c>
-      <c r="H24" s="1">
-        <v>1500</v>
-      </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J24" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>2003</v>
       </c>
-      <c r="E25" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="1">
-        <v>1500</v>
-      </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J25" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>3007</v>
       </c>
-      <c r="E26" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="1">
-        <v>1500</v>
-      </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J26" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>3004</v>
       </c>
-      <c r="E27" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1">
         <v>2</v>
       </c>
-      <c r="H27" s="1">
-        <v>1500</v>
-      </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J27" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
       <c r="C28" s="1">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="1">
         <v>3005</v>
       </c>
-      <c r="E28" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3</v>
+      <c r="F28" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H28" s="1">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J28" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
       <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
         <v>1000</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>1005</v>
       </c>
-      <c r="E29" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1">
-        <v>3</v>
+      <c r="F29" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="1">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J29" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
       <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
         <v>2000</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>2005</v>
       </c>
-      <c r="E30" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3</v>
+      <c r="F30" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H30" s="1">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J30" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
       <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
         <v>1000</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>4013</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>2002</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
       <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
         <v>1000</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>4004</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>2002</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
       <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
         <v>1000</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>4002</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>2002</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
+      <c r="G33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
       <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
         <v>1000</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>4015</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>2002</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
       <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>4008</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>2003</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
       <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>4005</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>2003</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C37" s="1">
         <v>4</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
       <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>1004</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>2004</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3</v>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
         <v>1000</v>
       </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
       <c r="J37" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
       <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>1007</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>2004</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="1">
-        <v>3</v>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1">
         <v>1000</v>
       </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
       <c r="J38" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="1">
         <v>4</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
       <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
         <v>2031</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>2004</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="1">
-        <v>3</v>
+      <c r="G39" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H39" s="1">
+        <v>3</v>
+      </c>
+      <c r="I39" s="1">
         <v>1000</v>
       </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
       <c r="J39" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
       <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>2026</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>2004</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="1">
-        <v>3</v>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
         <v>1000</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
       <c r="J40" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
       <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>3006</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>2004</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3</v>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H41" s="1">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1">
         <v>1000</v>
       </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
       <c r="J41" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
       <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>3004</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>2004</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="1">
-        <v>3</v>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H42" s="1">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1">
         <v>1000</v>
       </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
       <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
         <v>1500</v>
       </c>
     </row>

--- a/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
+++ b/Assets/RealFram/Data/Excel/Wave/WaveData_0701.xlsx
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ref="D10:D15" ca="1" si="0">RANDBETWEEN(C100,500)</f>
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="E10" s="1">
         <v>1002</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>468</v>
+        <v>234</v>
       </c>
       <c r="E11" s="1">
         <v>1004</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>440</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1">
         <v>1006</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="E13" s="1">
         <v>1008</v>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="E14" s="1">
         <v>5006</v>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
         <v>2007</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" ref="D17:D19" ca="1" si="1">RANDBETWEEN(4500,5500)</f>
-        <v>5361</v>
+        <v>4612</v>
       </c>
       <c r="E17" s="1">
         <v>3005</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5364</v>
+        <v>5154</v>
       </c>
       <c r="E18" s="1">
         <v>3001</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5334</v>
+        <v>4855</v>
       </c>
       <c r="E19" s="1">
         <v>3024</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" ref="D20:D22" ca="1" si="2">RANDBETWEEN(7500,8500)</f>
-        <v>8211</v>
+        <v>7873</v>
       </c>
       <c r="E20" s="1">
         <v>1006</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7773</v>
+        <v>7657</v>
       </c>
       <c r="E21" s="1">
         <v>1007</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7533</v>
+        <v>8005</v>
       </c>
       <c r="E22" s="1">
         <v>1009</v>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D25" ca="1" si="3">RANDBETWEEN(11000,12000)</f>
-        <v>11165</v>
+        <v>11812</v>
       </c>
       <c r="E23" s="1">
         <v>2008</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11509</v>
+        <v>11778</v>
       </c>
       <c r="E24" s="1">
         <v>2006</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11119</v>
+        <v>11472</v>
       </c>
       <c r="E25" s="1">
         <v>2004</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">RANDBETWEEN(14000,15000)</f>
-        <v>14803</v>
+        <v>14957</v>
       </c>
       <c r="E26" s="1">
         <v>3006</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="D43" s="8">
         <f t="shared" ref="D43:D53" ca="1" si="4">RANDBETWEEN(0,500)</f>
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="E43" s="8">
         <v>1025</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="D44" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="E44" s="8">
         <v>1027</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="D45" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E45" s="8">
         <v>1029</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D46" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="E46" s="8">
         <v>1031</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D47" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>111</v>
+        <v>500</v>
       </c>
       <c r="E47" s="8">
         <v>1033</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D48" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="E48" s="8">
         <v>2031</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D49" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="E49" s="8">
         <v>1031</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="D50" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="E50" s="8">
         <v>1033</v>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="D51" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="E51" s="8">
         <v>3025</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D52" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="E52" s="8">
         <v>3027</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D53" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E53" s="8">
         <v>3029</v>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D54" s="8">
         <f t="shared" ref="D54:D57" ca="1" si="5">RANDBETWEEN(0,1000)</f>
-        <v>763</v>
+        <v>444</v>
       </c>
       <c r="E54" s="8">
         <v>1002</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="D55" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>629</v>
+        <v>897</v>
       </c>
       <c r="E55" s="8">
         <v>1004</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D56" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="E56" s="8">
         <v>1006</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D57" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>639</v>
       </c>
       <c r="E57" s="8">
         <v>1008</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="D58" s="8">
         <f ca="1">RANDBETWEEN(1300,2000)</f>
-        <v>1521</v>
+        <v>1695</v>
       </c>
       <c r="E58" s="8">
         <v>3003</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D59" s="8">
         <f ca="1">RANDBETWEEN(1300,2000)</f>
-        <v>1359</v>
+        <v>1764</v>
       </c>
       <c r="E59" s="8">
         <v>2007</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D63" s="8">
         <f t="shared" ref="D63:D68" ca="1" si="6">RANDBETWEEN(0,1000)</f>
-        <v>372</v>
+        <v>931</v>
       </c>
       <c r="E63" s="8">
         <v>1002</v>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="D64" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>864</v>
+        <v>484</v>
       </c>
       <c r="E64" s="8">
         <v>2010</v>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D65" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>752</v>
+        <v>51</v>
       </c>
       <c r="E65" s="8">
         <v>2008</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="D66" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="E66" s="8">
         <v>2005</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="D67" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>812</v>
+        <v>332</v>
       </c>
       <c r="E67" s="8">
         <v>2004</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="D68" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>708</v>
       </c>
       <c r="E68" s="8">
         <v>2002</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D70" s="8">
         <f t="shared" ref="D70:D74" ca="1" si="7">RANDBETWEEN(3000,3500)</f>
-        <v>3236</v>
+        <v>3435</v>
       </c>
       <c r="E70" s="8">
         <v>1002</v>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D71" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3245</v>
+        <v>3442</v>
       </c>
       <c r="E71" s="8">
         <v>1004</v>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="D72" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3239</v>
+        <v>3283</v>
       </c>
       <c r="E72" s="8">
         <v>1006</v>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D73" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3448</v>
+        <v>3007</v>
       </c>
       <c r="E73" s="8">
         <v>1008</v>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="D74" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>3038</v>
+        <v>3053</v>
       </c>
       <c r="E74" s="8">
         <v>5001</v>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D75" s="8">
         <f t="shared" ref="D75:D85" ca="1" si="8">RANDBETWEEN(0,500)</f>
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E75" s="8">
         <v>1024</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="D76" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E76" s="8">
         <v>1002</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="D77" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="E77" s="8">
         <v>1004</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="D78" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>423</v>
+        <v>237</v>
       </c>
       <c r="E78" s="8">
         <v>1006</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="D79" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="E79" s="8">
         <v>1021</v>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="D80" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="E80" s="8">
         <v>2007</v>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="D81" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>442</v>
+        <v>170</v>
       </c>
       <c r="E81" s="8">
         <v>1002</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="D82" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="E82" s="8">
         <v>1004</v>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="D83" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>175</v>
+        <v>494</v>
       </c>
       <c r="E83" s="8">
         <v>1006</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D84" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="E84" s="8">
         <v>1008</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D85" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>466</v>
+        <v>283</v>
       </c>
       <c r="E85" s="8">
         <v>1009</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D87" s="8">
         <f t="shared" ref="D87:D92" ca="1" si="9">RANDBETWEEN(0,500)</f>
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="E87" s="8">
         <v>1004</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="D88" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="E88" s="8">
         <v>1006</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D89" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="E89" s="8">
         <v>1008</v>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="D90" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>467</v>
       </c>
       <c r="E90" s="8">
         <v>4008</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D91" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="E91" s="8">
         <v>4009</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D92" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="E92" s="8">
         <v>4016</v>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D93" s="8">
         <f t="shared" ref="D93:D98" ca="1" si="10">RANDBETWEEN(1000,1500)</f>
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="E93" s="8">
         <v>4006</v>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="D94" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1088</v>
+        <v>1349</v>
       </c>
       <c r="E94" s="8">
         <v>4011</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="D95" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1447</v>
+        <v>1198</v>
       </c>
       <c r="E95" s="8">
         <v>4016</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="D96" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1029</v>
+        <v>1419</v>
       </c>
       <c r="E96" s="8">
         <v>2006</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="D97" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1429</v>
+        <v>1373</v>
       </c>
       <c r="E97" s="8">
         <v>2008</v>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="D98" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="E98" s="8">
         <v>2008</v>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="D99" s="8">
         <f t="shared" ref="D99:D103" ca="1" si="11">RANDBETWEEN(1500,2000)</f>
-        <v>1742</v>
+        <v>1817</v>
       </c>
       <c r="E99" s="8">
         <v>4005</v>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="D100" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1712</v>
+        <v>1794</v>
       </c>
       <c r="E100" s="8">
         <v>4012</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="D101" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1783</v>
+        <v>1838</v>
       </c>
       <c r="E101" s="8">
         <v>4013</v>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="D102" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1731</v>
+        <v>1650</v>
       </c>
       <c r="E102" s="8">
         <v>2001</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="D103" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>1944</v>
+        <v>1757</v>
       </c>
       <c r="E103" s="8">
         <v>3007</v>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="D104" s="8">
         <f ca="1">RANDBETWEEN(2000,2500)</f>
-        <v>2305</v>
+        <v>2026</v>
       </c>
       <c r="E104" s="8">
         <v>6017</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="D105" s="8">
         <f ca="1">RANDBETWEEN(2000,2500)</f>
-        <v>2237</v>
+        <v>2332</v>
       </c>
       <c r="E105" s="8">
         <v>5006</v>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D130" s="8">
         <f t="shared" ref="D130:D138" ca="1" si="12">RANDBETWEEN(0,500)</f>
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="E130" s="8">
         <v>1033</v>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="D131" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>112</v>
+        <v>478</v>
       </c>
       <c r="E131" s="8">
         <v>1031</v>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="D132" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="E132" s="8">
         <v>1004</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D133" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>380</v>
+        <v>214</v>
       </c>
       <c r="E133" s="8">
         <v>1006</v>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="D134" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="E134" s="8">
         <v>3032</v>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="D135" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>324</v>
       </c>
       <c r="E135" s="8">
         <v>3026</v>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D136" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>158</v>
+        <v>451</v>
       </c>
       <c r="E136" s="8">
         <v>3002</v>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="D137" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>293</v>
+        <v>396</v>
       </c>
       <c r="E137" s="8">
         <v>3004</v>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D138" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>500</v>
       </c>
       <c r="E138" s="8">
         <v>3007</v>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D139" s="8">
         <f t="shared" ref="D139:D145" ca="1" si="13">RANDBETWEEN(0,500)</f>
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="E139" s="8">
         <v>1002</v>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="D140" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="E140" s="8">
         <v>5005</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="D141" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="E141" s="8">
         <v>6017</v>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="D142" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>137</v>
+        <v>287</v>
       </c>
       <c r="E142" s="8">
         <v>2007</v>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="D143" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="E143" s="8">
         <v>2005</v>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="D144" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="E144" s="8">
         <v>2003</v>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D145" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>229</v>
+        <v>411</v>
       </c>
       <c r="E145" s="8">
         <v>3008</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="D146" s="8">
         <f ca="1">RANDBETWEEN(1000,1500)</f>
-        <v>1214</v>
+        <v>1387</v>
       </c>
       <c r="E146" s="8">
         <v>1023</v>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="D147" s="8">
         <f t="shared" ref="D147:D164" ca="1" si="14">RANDBETWEEN(0,500)</f>
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="E147" s="8">
         <v>1006</v>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D148" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E148" s="8">
         <v>1008</v>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="D149" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>165</v>
+        <v>494</v>
       </c>
       <c r="E149" s="8">
         <v>1009</v>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="D150" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="E150" s="8">
         <v>3002</v>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D151" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="E151" s="8">
         <v>3004</v>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="D152" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="E152" s="8">
         <v>4017</v>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="D153" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="E153" s="8">
         <v>1002</v>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="D154" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E154" s="8">
         <v>2009</v>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="D155" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>475</v>
+        <v>373</v>
       </c>
       <c r="E155" s="8">
         <v>2005</v>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D156" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>434</v>
+        <v>144</v>
       </c>
       <c r="E156" s="8">
         <v>2007</v>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D157" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="E157" s="8">
         <v>2003</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="D158" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="E158" s="8">
         <v>1011</v>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="D159" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>182</v>
+        <v>386</v>
       </c>
       <c r="E159" s="8">
         <v>1007</v>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D160" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>297</v>
+        <v>72</v>
       </c>
       <c r="E160" s="8">
         <v>3003</v>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="D161" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="E161" s="8">
         <v>3021</v>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="D162" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>105</v>
+        <v>487</v>
       </c>
       <c r="E162" s="8">
         <v>4017</v>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D163" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="E163" s="8">
         <v>2007</v>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="D164" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>486</v>
+        <v>153</v>
       </c>
       <c r="E164" s="8">
         <v>1002</v>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="D165" s="8">
         <f t="shared" ref="D165:D169" ca="1" si="15">RANDBETWEEN(500,700)</f>
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="E165" s="8">
         <v>5002</v>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D166" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="E166" s="8">
         <v>1004</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="D167" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E167" s="8">
         <v>1024</v>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="D168" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>576</v>
+        <v>513</v>
       </c>
       <c r="E168" s="8">
         <v>2006</v>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D169" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="E169" s="8">
         <v>2009</v>
